--- a/resource/CheckLDP.xlsx
+++ b/resource/CheckLDP.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>STT</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>https://tai.uk88.digital/</t>
-  </si>
-  <si>
-    <t>https://lp.vuiuk88.fun/</t>
   </si>
   <si>
     <t>https://ad.ta88vn.org/</t>
@@ -3546,7 +3543,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -6587,7 +6584,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -30940,12 +30937,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="8"/>
     </row>
     <row r="7">
       <c r="A7" s="3"/>
@@ -33935,8 +33928,7 @@
     <hyperlink r:id="rId1" ref="B3"/>
     <hyperlink r:id="rId2" ref="B4"/>
     <hyperlink r:id="rId3" ref="B5"/>
-    <hyperlink r:id="rId4" ref="B6"/>
   </hyperlinks>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>